--- a/ner/stanza/stanza_ner.xlsx
+++ b/ner/stanza/stanza_ner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>stanza_ner_recd_ents</t>
+          <t>entities</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>labels</t>
         </is>
       </c>
     </row>
@@ -474,6 +479,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -494,6 +504,11 @@
           <t>TIMOTHY ALLEN</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -514,6 +529,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -534,6 +554,11 @@
           <t>23</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -554,6 +579,11 @@
           <t>BOEING</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -574,6 +604,11 @@
           <t>JULY 13, 2005, AT 1535</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -594,6 +629,11 @@
           <t>MST</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -614,6 +654,11 @@
           <t>AN RAYTHEON AIRCRAFT CO. B36TC</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -634,6 +679,11 @@
           <t>BONANZA</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -654,6 +704,11 @@
           <t>ONE</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -674,6 +729,11 @@
           <t>BOWEN</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -694,6 +754,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -714,6 +779,11 @@
           <t>23</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -734,6 +804,11 @@
           <t>CRUISE FLIGHT</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -754,6 +829,11 @@
           <t>BELWO UMC</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -774,6 +854,11 @@
           <t>LANDED ON SEA ICE</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -794,6 +879,11 @@
           <t>MARCH 14, 1995</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -814,6 +904,11 @@
           <t>BARTLESVILLE MUNICIPAL AIRPORT</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -834,6 +929,11 @@
           <t>BVO</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -854,6 +954,11 @@
           <t>BARTLESVILLE</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -874,6 +979,11 @@
           <t>ENGINE COWLING</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -894,6 +1004,11 @@
           <t>NE</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -914,6 +1029,11 @@
           <t>IOWA CITY</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -934,6 +1054,11 @@
           <t>IA</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -954,6 +1079,11 @@
           <t>487</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -974,6 +1104,11 @@
           <t>SPRINGS</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -994,6 +1129,11 @@
           <t>ARKANSAS</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1014,6 +1154,11 @@
           <t>FAYETTEVILLE</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1034,6 +1179,11 @@
           <t>TENNESSEE</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1054,6 +1204,11 @@
           <t>KADERA</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1074,6 +1229,11 @@
           <t>93</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1094,6 +1254,11 @@
           <t>IOWA</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1114,6 +1279,11 @@
           <t>.19</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1134,6 +1304,11 @@
           <t>SEPTEMBER 23, 1999, AT 1900</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1154,6 +1329,11 @@
           <t>.19</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1352,11 @@
       <c r="D37" t="inlineStr">
         <is>
           <t>FEBRUARY 19, 2000, AT 1825</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DATE</t>
         </is>
       </c>
     </row>
